--- a/data/test plan.xlsx
+++ b/data/test plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4999BC00-B9C4-469C-AF0C-C9887405DED9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18020157-9C65-45E7-8399-6A8D92A5C9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="132">
   <si>
     <t>TC ID</t>
   </si>
@@ -252,7 +252,8 @@
     <t>Insert old password</t>
   </si>
   <si>
-    <t>Your personal information has been successfully updated.</t>
+    <t>YOUR PERSONAL INFORMATION
+Your personal information has been successfully updated.</t>
   </si>
   <si>
     <t>Precondition</t>
@@ -312,70 +313,67 @@
     <t>1. Click "Add to cart" button</t>
   </si>
   <si>
+    <t>Pop up window is present</t>
+  </si>
+  <si>
+    <t>2. Click "Proceed To Checkout" button</t>
+  </si>
+  <si>
+    <t>Cart Page with product is present:</t>
+  </si>
+  <si>
+    <t>Cart 1 Product</t>
+  </si>
+  <si>
+    <t>Add one product, quntity = 3</t>
+  </si>
+  <si>
+    <t>3. Press "+" twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your shopping cart contains: </t>
+  </si>
+  <si>
+    <t>Cart 3 Products</t>
+  </si>
+  <si>
+    <t>Add multiple products to cart (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop up window is present </t>
+  </si>
+  <si>
+    <t>2. Click "Continue shopping" button</t>
+  </si>
+  <si>
+    <t>Choose next product</t>
+  </si>
+  <si>
+    <t>3. Click "Add to cart" button</t>
+  </si>
+  <si>
+    <t>4. Click "Continue shopping" button</t>
+  </si>
+  <si>
+    <t>5. Click "Add to cart" button</t>
+  </si>
+  <si>
     <t>Pop up window is present with text:</t>
   </si>
   <si>
-    <t>There is 1 item in your cart.</t>
-  </si>
-  <si>
-    <t>2. Click "Proceed To Checkout" button</t>
-  </si>
-  <si>
-    <t>Cart Page with product is present:</t>
-  </si>
-  <si>
-    <t>Blouse</t>
-  </si>
-  <si>
-    <t>Add one product, quntity = 3</t>
-  </si>
-  <si>
-    <t>3. Press "+" twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your shopping cart contains: </t>
-  </si>
-  <si>
-    <t>3 Products</t>
-  </si>
-  <si>
-    <t>Add multiple products to cart (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pop up window is present </t>
-  </si>
-  <si>
-    <t>2. Click "Continue shopping" button</t>
-  </si>
-  <si>
-    <t>Choose next product</t>
-  </si>
-  <si>
-    <t>3. Click "Add to cart" button</t>
-  </si>
-  <si>
-    <t>4. Click "Continue shopping" button</t>
-  </si>
-  <si>
-    <t>5. Click "Add to cart" button</t>
-  </si>
-  <si>
     <t>6. Click "Proceed To Checkout" button</t>
   </si>
   <si>
     <t>Cart Page with products is present:</t>
   </si>
   <si>
-    <t>Printed Dress</t>
-  </si>
-  <si>
     <t>Remove product from cart</t>
   </si>
   <si>
     <t>1. Click "Delete icon"</t>
   </si>
   <si>
-    <t>Your shopping cart is empty.</t>
+    <t>Cart (empty)</t>
   </si>
   <si>
     <t>//prediction = product is added</t>
@@ -1334,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C0276-5E5F-4121-B32D-9D4CF35F5916}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1408,11 +1406,11 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30">
       <c r="B7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1565,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45E7A51-1DFC-4D9D-8002-7D53396917AF}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1600,124 +1598,109 @@
       <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="D3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1">
-      <c r="B4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
       <c r="D6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="D7" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>101</v>
       </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="D11" t="s">
-        <v>103</v>
+      <c r="D11" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>105</v>
+      <c r="D12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
       <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1741,47 +1724,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>11004</v>
@@ -1789,15 +1772,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>3886598744</v>
@@ -1805,15 +1788,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -1821,7 +1804,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>123456789</v>
